--- a/lib/xlsx_reader/sacados.xlsx
+++ b/lib/xlsx_reader/sacados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Quim/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Quim/code/lead_advalori/lib/xlsx_reader/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6586,15 +6586,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6609,6 +6600,15 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -6967,9 +6967,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H460"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -6984,40 +6982,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="21">
-      <c r="A2" s="9">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <v>3</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="9">
         <v>4</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="9">
         <v>5</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="9">
         <v>6</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="10">
         <v>7</v>
       </c>
     </row>
@@ -17385,9 +17383,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A3:H460"/>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>